--- a/data/hotels_by_city/Houston/Houston_shard_635.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_635.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56109-d239992-Reviews-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
   </si>
   <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Super-8-By-Wyndham-La-Marque-TXTexas-City-Area.h440468.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1383 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r574454779-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>56109</t>
+  </si>
+  <si>
+    <t>239992</t>
+  </si>
+  <si>
+    <t>574454779</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Terific weekly rates, nice room and service when working out of town :)</t>
+  </si>
+  <si>
+    <t>The management and staff have been very friendly and accommodating to me since arriving here in October of 2017. I’m from out of town and stay here 5-6 days a week, while working at a new construction project at INEOS CBW in Chocolate Bayou. I have seen updated flooring, bedding and furnishings by motel management since my arrival last year. The weekly prices are too low to mention here, so stop by, book a room, meet the management and staff, and enjoy your stay!GMR</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r567360279-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>567360279</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r565829760-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>565829760</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Room with mold</t>
+  </si>
+  <si>
+    <t>Staff was nice but not our room, we were moved to a better room our should nit have been rented. New floors they blamed the picture on but mold growing on bed skirt is not from new floors. That room also had a hole in wall, sticky remote and used shampoo bottle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r561597148-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>561597148</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Night stay before cruise</t>
+  </si>
+  <si>
+    <t>Typical Super 8 off Highway and just outside Galveston, TX. Amit checked us in and was very kind and helpful; offering local places for dinner. Our room was clean. The only problems were: we only had 2 large towels, only 3 pillows on the bed, NO outlets available by the bed, bathroom outlets did not work and the bathroom sinks faucet fell off when we tried to use it. I did report these to the front desk the following morning. Breakfast was a variety of cereal, packaged pastries, waffles, toast, milk, juice and coffee.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r553856788-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>553856788</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r547887487-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>547887487</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>convenient</t>
+  </si>
+  <si>
+    <t>the exterior of the hotel was better than what it looked like years ago. it is convenient to where it is located from my house. the room was clean except for a dirty towel in the bathroom hanging over the curtain rod that i threw away in the trash. the bed was comfortable to sleep in. the front desk clerk was helpful and nice.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r529678379-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>529678379</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Desperate Measures</t>
+  </si>
+  <si>
+    <t>The attendant who assisted me was nice but the property was terrible.  That Super 8 was the only motel in the area where I could get a room.  The bathroom was not well kept and the room smelled nasty.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r523668910-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>523668910</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>A cheap hotel for an not-so-cheap price!</t>
+  </si>
+  <si>
+    <t>The staff is very courteous and helpful.  The bed was very comfortable.  The air conditioner did blow cold air.  The free wifi signal was very strong.  Unfortunately, the room smelled bad and was very humid in spite of the air conditioning.  It smelled very musty.  I was not comfortable with the overall cleanliness.  The bathroom was clean, but the room was less so.  When we went to breakfast in the morning, both juice dispensers and the waffle batter were empty.  Overall, I have stayed in much nicer rooms for the price I paid for this room.  While I did like the staff, I did not like the room and would not recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The staff is very courteous and helpful.  The bed was very comfortable.  The air conditioner did blow cold air.  The free wifi signal was very strong.  Unfortunately, the room smelled bad and was very humid in spite of the air conditioning.  It smelled very musty.  I was not comfortable with the overall cleanliness.  The bathroom was clean, but the room was less so.  When we went to breakfast in the morning, both juice dispensers and the waffle batter were empty.  Overall, I have stayed in much nicer rooms for the price I paid for this room.  While I did like the staff, I did not like the room and would not recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r522686135-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>522686135</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r512024108-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>512024108</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r511378233-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>511378233</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Our trip</t>
+  </si>
+  <si>
+    <t>This was a nice Hotel,very reasonable,clean rooms,sheets,towels ect.We enjoyed it very much.It was a little far to where we wanted to be at.But it still worked for us.I would stay here again.Highly recommended.Thank u..Sandoval Family</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r510314996-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>510314996</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r503713790-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>503713790</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r501688678-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>501688678</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r497243278-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>497243278</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r494396125-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>494396125</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r493872138-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>493872138</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Disgusting!!</t>
+  </si>
+  <si>
+    <t>Dirty room! Turned in water in the bath and it was brown!! Dirty wash rag hanging in the shower and nothing looked like it was wiped off! Worst hotel experience!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r493026890-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>493026890</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r491537610-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>491537610</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r491053614-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>491053614</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Amazing customer service</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 3 nights for our anniversary trip to galveston. Not only was it cheap, but it was clean and quiet. Located about 15 min from galveston its worth it just for the savings alone. The gentleman that checked me in was pleasent and sweet. I highly recomend this place and I will be staying here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r489171173-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>489171173</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Bad experience, threw out my belongings while I was still checked in</t>
+  </si>
+  <si>
+    <t>I was told there would be trailer parking, the parking lot was shaped so no trailers could possibly get in, had to park at another nearby hotel and hope I wasn't towed.  While still checked in, I came back to my room to find room service cleared out my belongings, and threw them away or kept them.  They returned some of my clothes they found in a trash bag and did nothing else to correct the mistake.  The rest of my things were not returned.  Staff was unhelpful and didn't care.  Room smelled like smoke and sheets were stained yellow.  I would NEVER go back, or stay at any super 8 again the experience was so bad.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I was told there would be trailer parking, the parking lot was shaped so no trailers could possibly get in, had to park at another nearby hotel and hope I wasn't towed.  While still checked in, I came back to my room to find room service cleared out my belongings, and threw them away or kept them.  They returned some of my clothes they found in a trash bag and did nothing else to correct the mistake.  The rest of my things were not returned.  Staff was unhelpful and didn't care.  Room smelled like smoke and sheets were stained yellow.  I would NEVER go back, or stay at any super 8 again the experience was so bad.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r483932142-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>483932142</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Not the norm</t>
+  </si>
+  <si>
+    <t>Friendly staff, room was clean, not a full list of channels. My biggest complaint was when I walked in the room was over 80 degrees. Next, went to put something in the fridge and it was hot. Called the office but, by the the time he got there I had pushed the GFI breaker and it came on. They had the coffee maker, blow dryer, microwave and fridge all in that one GFI socket. No wonder it tripped. Then next to the bed I needed to plug in my phone so, I unplugged alarm clock and discovered that plug didn't work. So, the one side of plug that did work I unplugged the light and charged phone. No alarm clock, no light on one side of bed. Hot room..hot fridge..no power in plugs. MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff, room was clean, not a full list of channels. My biggest complaint was when I walked in the room was over 80 degrees. Next, went to put something in the fridge and it was hot. Called the office but, by the the time he got there I had pushed the GFI breaker and it came on. They had the coffee maker, blow dryer, microwave and fridge all in that one GFI socket. No wonder it tripped. Then next to the bed I needed to plug in my phone so, I unplugged alarm clock and discovered that plug didn't work. So, the one side of plug that did work I unplugged the light and charged phone. No alarm clock, no light on one side of bed. Hot room..hot fridge..no power in plugs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r481923281-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>481923281</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Restful stay of two weeks</t>
+  </si>
+  <si>
+    <t>Older property, but comfortable. Maid service was exceptional. Refrigerator on the fritz when we arrived but replaced same day, no other issues, most likely to return next year. Would rather not have tv on during breakfast, but I understand there are other guests who prefer it</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r481458230-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>481458230</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Looks nothing like the photo's shown, gross misrepresentation. It's a DUMP!</t>
+  </si>
+  <si>
+    <t>Booked a room for one night. Got there and I was confused if I even had the right address. Upon speaking with Mr. Patel (in the lobby) about the gross misrepresentation of the photos he stated it was too late to cancel and I must take the room. He said he didn't know what I was referring to about the photos of the hotel. The lobby stunk and was filthy.  Regardless, I walked out, didn't need to see anymore.... I immediately called the company I booked through and thankfully and got a full refund on my card, and reported the condition and misrepresentation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r478097535-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>478097535</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r473234901-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>473234901</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Staff is horrible and difficult to deal with</t>
+  </si>
+  <si>
+    <t>Called to make a group reservation agreed upon price told Mr. Patel that I would call him back with credit card to reserve.  Called back he was not available, called 10 times  over 4 days each time speaking to female, and  each time she was clueless to what was needed.  Finally reached Mr. Patel on 11th call and he stated to confusing to talk on phone, his English is not very good. So he asked me to send him email, so I send him an email.  Don't hear anything for 2 days.  Called again and he states no rooms available some other large group booked the rooms.......seriously!    Based on my experience and reviews of others I would say avoid this place like the plague.MoreShow less</t>
+  </si>
+  <si>
+    <t>Called to make a group reservation agreed upon price told Mr. Patel that I would call him back with credit card to reserve.  Called back he was not available, called 10 times  over 4 days each time speaking to female, and  each time she was clueless to what was needed.  Finally reached Mr. Patel on 11th call and he stated to confusing to talk on phone, his English is not very good. So he asked me to send him email, so I send him an email.  Don't hear anything for 2 days.  Called again and he states no rooms available some other large group booked the rooms.......seriously!    Based on my experience and reviews of others I would say avoid this place like the plague.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r472988769-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>472988769</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Old and smelly</t>
+  </si>
+  <si>
+    <t>This is clearly a former smoking hotel that has not been cleared or updated, only covered in horrible air freshener. There was mold on the ceiling above the shower and we had to sleep with the window open to even make it through the night. An absolute dump.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r470874296-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>470874296</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r468385967-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>468385967</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfy, and quiet</t>
+  </si>
+  <si>
+    <t>The location is fine for us, room was clean, appeared remodeled recently, AC was quiet, quiet at night, free parking but rather full during spring Break week. Staff was friendly. Internet was fast enough.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r464621206-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>464621206</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Night before Galveston cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needed one room, one night before cruise for family of four. Price and location was great for this purpose. Room was pretty much clean. Did not eat breakfast. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r463578534-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>463578534</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r459775389-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>459775389</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r459138704-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>459138704</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r440008250-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>440008250</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r433286731-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>433286731</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r433203251-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>433203251</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r421030575-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>421030575</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugright sales </t>
+  </si>
+  <si>
+    <t>Needed a room for the night. Room looked clean bed was comfortable room had a light musty smell. The room could use a little maintaining one lamp no light bulb some dents and marks on the wall. Property could use a lot of care and maintenance. It is OK but that is as far as I would go. I don't think I would come back I will plan better next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r414637725-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>414637725</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Great Accommodations</t>
+  </si>
+  <si>
+    <t>Moved to this hotel due to unbearable humidity at another room. They would not relocate us to another room nor refund our money so we moved. I recommend this hotel!!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r410561041-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>410561041</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Worst stay.</t>
+  </si>
+  <si>
+    <t>I arrived 1 hour early. There was nothing cleaned. I came back the clerk have me a room number that didn't exist. So I had to go back and get another . The room had trash in it from previous guest. The toilet was over flowing and the clerk said everyone is gone for the day would you like a plunger?.it was pouring rain or I would have checked out. The key only worked once I had to go out grab dinner and had to have my key scanned again so of course the other one stopped working. Breakfast was a little to be desired. I couldn't wait for morning to get out. There was a fight during the night tenants and clerk. I wouldn't come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived 1 hour early. There was nothing cleaned. I came back the clerk have me a room number that didn't exist. So I had to go back and get another . The room had trash in it from previous guest. The toilet was over flowing and the clerk said everyone is gone for the day would you like a plunger?.it was pouring rain or I would have checked out. The key only worked once I had to go out grab dinner and had to have my key scanned again so of course the other one stopped working. Breakfast was a little to be desired. I couldn't wait for morning to get out. There was a fight during the night tenants and clerk. I wouldn't come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r394515037-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>394515037</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r390832575-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>390832575</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r389584100-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>389584100</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Decent for price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outside appearance didn't look like much, but the rooms were nice. There was a smell, but to be expected close to the saltwater! Breakfast wasn't much, but had ripe bananas and good Texas waffles. Room was quiet and the beds were comfortable. Renovating some rooms, but ours was nice. Had 3 rooms total and they all were done nicely. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r385532172-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>385532172</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Rooms were clean but property and facility are a little...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms were clean but property and facility are a little outdated. Service was great. They took us in at a last minute notice at 12:30 a.m. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r384634947-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>384634947</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r383448951-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>383448951</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>mr.jerry given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my stay here was nice. The service was good. Rooms were clean and had a pleasant stay. Will come back next time. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r366985189-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>366985189</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r363193947-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>363193947</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Very outdated...not worth the money</t>
+  </si>
+  <si>
+    <t>This hotel needs lots of renovation! The rooms have dirty carpet and drapes, and moldy areas in the floor and ceilings in the bathroom. I won't make this mistake again!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r357597001-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>357597001</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r356724772-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>356724772</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Very terrible</t>
+  </si>
+  <si>
+    <t>No privacy,there up your behind paid for a king both days but the second day Ac went out so they switched us to a queen I asked if they had any other kings and the owner said no since it was spring break well I call the front disk as a random person and the person at the front desk said the had room 117 which is a king so they lied and did not give me my extra money for the king</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r350904392-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>350904392</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>very clean and friendly service</t>
+  </si>
+  <si>
+    <t>The motel didn’t make a good impression from the outside. Walls and doors were stained and scratched. Our room was small; however, it must have been recently renovated: fresh paint, new carpet and furniture. The bathroom was not part of the renovation but it was very clean. We had a good night’s sleep because the mattress on the king size bed was really comfortable. The motel itself was quiet but there was some noise from the street. Ask for a room further away from the front if that would disturb you. The breakfast was fairly plain but enough choice to get you going.We appreciated the friendly and helpful service.We had booked this motel because we went on a cruise the next day. The price for the room was better than on the island and it was only a 20 minute drive to the pier.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The motel didn’t make a good impression from the outside. Walls and doors were stained and scratched. Our room was small; however, it must have been recently renovated: fresh paint, new carpet and furniture. The bathroom was not part of the renovation but it was very clean. We had a good night’s sleep because the mattress on the king size bed was really comfortable. The motel itself was quiet but there was some noise from the street. Ask for a room further away from the front if that would disturb you. The breakfast was fairly plain but enough choice to get you going.We appreciated the friendly and helpful service.We had booked this motel because we went on a cruise the next day. The price for the room was better than on the island and it was only a 20 minute drive to the pier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r350076688-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>350076688</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Cheap but dirty and uncomfortable</t>
+  </si>
+  <si>
+    <t>First the front desk was extremely unfriendly and the lobby smelt like urine (hence I disn't bother to come back in the morning for breakfast or coffee).  The rooms were extreme need of repair, repainting and cleaning.  There was mold and dirt around the toluet and shower.  The only thing upgraded in the room in last decade was the sink counter top and TV. The bed was very old and uncomfortable drapped w really old hole-filled sheets and blankets.  For an extra $20 I could have stayed in a newer cleaner hotel a few miles away.  I would not recommend this motel to anyone, even for the budget-minded.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r326023217-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>326023217</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>room sink handle valve leaked all over the counter top when...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room sink handle valve leaked all over the counter top when turned for hot water.    also room had water damage to wall and ceiling in few spots.   last stay at this location was better cause was a corporate hotel and this time was a franchise.  very stingy on supplies, had to ask for spare rolls of toilet paper even after room service had already been in room. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r325803116-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>325803116</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r325579319-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>325579319</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r313643172-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>313643172</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r303800261-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>303800261</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Clean rooms. ac worked great. Rooms was cleaned up daily. We was only there to sleep.. Bed was comfy but we always bring extra pillows lol price was great for 3 nights after being booked well in advance</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r296781756-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>296781756</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Not good. Not good at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- lights don't work- horrible service- cigarette smell (even in non-smoking rooms)-mildew smell on top of the cigarette smell- bathroom door won't close- bed made of springs and that's it basically By far the worst hotel/motel ever created by man, I'm pretty sure someone needs to call the cdc on this place. You're  better of sleeping in your car. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r287011759-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>287011759</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Needs updating bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was old, need remodeling, was told it was owned by an individual, not Super 8.  Had flies and nit's in the room.    </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r280499192-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>280499192</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Terrible smell in the room. Had to go to the supermarket to buy an air freshener to be able to sleep. Old and run down building. Not a good experience. Very expensive for what it offers. Wouldn't recommend it. Stay away</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r279990953-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>279990953</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r266927972-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>266927972</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Nice budget stay.</t>
+  </si>
+  <si>
+    <t>I was a little worried about booking this motel from the reviews but I have to say it served us well.  I had booked two rooms and needed to divide the bill.  The girl at the desk did this very cheerfully for us.  The rooms have been updated with colorful walls and granite counter tops and the carpet looked new.  It was very clean.  The rooms are small but we managed just fine.  Our coffee maker didn't work but I left a note and it was replaced with one that did.  Breakfast includes waffles, cereal, bananas, cinnamon rolls, yogurt and oatmeal.  We will definitely stay here again if we need a budget friendly place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I was a little worried about booking this motel from the reviews but I have to say it served us well.  I had booked two rooms and needed to divide the bill.  The girl at the desk did this very cheerfully for us.  The rooms have been updated with colorful walls and granite counter tops and the carpet looked new.  It was very clean.  The rooms are small but we managed just fine.  Our coffee maker didn't work but I left a note and it was replaced with one that did.  Breakfast includes waffles, cereal, bananas, cinnamon rolls, yogurt and oatmeal.  We will definitely stay here again if we need a budget friendly place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r263807644-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>263807644</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not for vacation </t>
+  </si>
+  <si>
+    <t>The front desk over charge. The air conditioner, microwave, nor alarm clock was on or plugged.  Very outdated.   Not worth it for a vacation stay but for a "good time" it will serve it's purpose.  Just beware.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r262552586-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>262552586</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The man I made reservation with, remembered me. They helped me get to room,  unlock, &amp; get in. I had an injection in my eye &amp; was near misery.   It was clean, quiet &amp; safe to recuperate. Great folks </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r254388971-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>254388971</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>I wasn't happy with the room and with the person at the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wasn't happy with the room and with the person at the front desk.  I can't walk well but had to go to the front desk to get a room on the first floor for they didn't believe my son that went to ask if I could get one on the first floor. </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r253706940-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>253706940</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r251093394-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>251093394</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>building needs repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the building ceilings paint are falling off the ceiling and cracks in the paint.  the showers are old.  our other room did nothave hot water.   they claimed to be booked but there entire time we were there, i only saw 8 cars.  i was there 5 days.  internet was ok and the cable tv worked. </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r228815298-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>228815298</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r226450155-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>226450155</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Only complaints was....</t>
+  </si>
+  <si>
+    <t>Close to beach, maybe 20 min drive, beds were like sleeping on floor and small. Hated coffee maker only makes 1 cup. Serve breakfast too early. Didnt give me all the towels or shampoo but was clean. Cheap price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r226091460-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>226091460</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>In Texas to go on a cruise and drove in the night before we sailed out.  We had made arrangements to stay at another hotel but got into town late and they let our room go.  Not the best Hotel I've stayed in but it worked for the price at last min. it's dated and the bathroom really small.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r221195547-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>221195547</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r217966000-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>217966000</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r217837795-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>217837795</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Worse rooms from la marqu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stay for two days because we couldn't find room at the last.  minute.  There was Cochroach drunks outside fighting manger can not understand English they were from India and would not do nothing . First time and last! ! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r212937701-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>212937701</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r211136566-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>211136566</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r210227209-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>210227209</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r199327288-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>199327288</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r196493309-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>196493309</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r195997676-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>195997676</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r186132947-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>186132947</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>good price and great location</t>
+  </si>
+  <si>
+    <t>hotel was offering rooms for   good price comparing to  next door. It has a comfortable bed for  good  sleep.Convenient location, just 15 minutes from galveston.Everything worked properly A/C, shower, toilet, lights, fridge, micowave, alarm clock &amp; coffeemaker.Housekeeping was good.The internet worked well and the TV was brand new.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r183846960-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>183846960</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r170055375-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>170055375</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r167079837-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>167079837</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Price was Great!</t>
+  </si>
+  <si>
+    <t>The location was good on and off the highway with out any difficulty. My room was clean and fresh. The internet worked well and the TV was brand new. I had to turn the AC down. The staff was friendly and helpful. For the cost and the location. I would say it was a great hotel.Breakfast was just ok. Boatman</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r165387134-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>165387134</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r164918118-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>164918118</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Room Rates</t>
+  </si>
+  <si>
+    <t>I went to this motel looking for a room and i was told by the clerk that they did have one smoking room available.  As i was so tired i said thats fine and asked them how much the rate was for the room. They told me that it was $113.00 dollars a night and i thought well thats not to bad. As i was paying for the room the clerk informed me that during the week the rates are cheaper as its only 55 dollars a night. I feel like i was taken advantage of and i just think its wrong to double your rates just because  you need a room on the weekend. Other than that issue the room was actually deccent and we had a good time.MoreShow less</t>
+  </si>
+  <si>
+    <t>I went to this motel looking for a room and i was told by the clerk that they did have one smoking room available.  As i was so tired i said thats fine and asked them how much the rate was for the room. They told me that it was $113.00 dollars a night and i thought well thats not to bad. As i was paying for the room the clerk informed me that during the week the rates are cheaper as its only 55 dollars a night. I feel like i was taken advantage of and i just think its wrong to double your rates just because  you need a room on the weekend. Other than that issue the room was actually deccent and we had a good time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r157547546-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>157547546</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r157242926-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>157242926</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r155185517-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>155185517</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r154436217-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>154436217</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Motel from the past</t>
+  </si>
+  <si>
+    <t>My company booked this motel for me. I was very disappointed when I arrived to check in. I requested a non smoking room and asked to look at several other rooms due because of issues I have had at other motels I have stayed at. The lady told me no, that was not possible and I had to stay in a smoking room because they were to capacity. The room looks nothing like the picture that they show on the website. The The outside is old run down much need in I paint and repair. The rooms are small and dark.many of the lights were unplugged the refrigerator was unplugged and had not been cleaned and had a bad smell in it.The tv was from the past,tube tv.The paint and curtains were ugly and the bed was small and uncomfortable cigarette burns in the carpet. I had to spend the night there because it was to late to a room somewhere else. I would not take my family to this place to spend the night.The AC/ Heat worked but it was the style wall unit that was loud and noisy.It is over priced for what they offer. If you like old run down motels from the past then this is the place for you. MoreShow less</t>
+  </si>
+  <si>
+    <t>My company booked this motel for me. I was very disappointed when I arrived to check in. I requested a non smoking room and asked to look at several other rooms due because of issues I have had at other motels I have stayed at. The lady told me no, that was not possible and I had to stay in a smoking room because they were to capacity. The room looks nothing like the picture that they show on the website. The The outside is old run down much need in I paint and repair. The rooms are small and dark.many of the lights were unplugged the refrigerator was unplugged and had not been cleaned and had a bad smell in it.The tv was from the past,tube tv.The paint and curtains were ugly and the bed was small and uncomfortable cigarette burns in the carpet. I had to spend the night there because it was to late to a room somewhere else. I would not take my family to this place to spend the night.The AC/ Heat worked but it was the style wall unit that was loud and noisy.It is over priced for what they offer. If you like old run down motels from the past then this is the place for you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r150273231-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>150273231</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r144890001-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>144890001</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotel was a ok stay nothing stood out ,breakfast did not have a big variety to crowded coffee machine sucked,second time i stayed there and will probably stay again needs improvement. </t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r141847403-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>141847403</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Don;t leave the lights on for me&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First, the check-in clerk  was not friendly or courteous at all.  Did not give you a list of services the hotel provide.    And the room was not as clean as it could have been,  There was a dead roach in my room. And I call for room service and I was told that the maid had not made it to work yet, so I had to come down and get it myself..         And at the time of check-out the staff was watching to see what time I was going to leave. </t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r140107723-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>140107723</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>OK as Expected</t>
+  </si>
+  <si>
+    <t>We stayed here the night before a cruise and found it acceptable.  Had a couple of light bulbs out the front desk clerk replaced...one of the lamps ended up being unplugged.  Comfortable beds, pillows a little flat, coffeemaker, fridge and microwave in the room.  Wifi worked great and our pizza we ordered off of it arrived in 20 minutes!  Breakfast included cereal, fruit, waffles, pastries, coffee, juice &amp; milk.etc.  Noticed the next morning that you can walk across the street to a shopping center.  Didn't notice it before due to the rain.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r100437131-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>100437131</t>
+  </si>
+  <si>
+    <t>03/16/2011</t>
+  </si>
+  <si>
+    <t>Very Disappointed</t>
+  </si>
+  <si>
+    <t>We booked this hotel online and did not think of reading the reviews.  We stayed at Super 8 Hotel in Canton, Texas and everything was great back Feb 2011.  Sadly we did not read the reviews before booking at Super 8 Hotel La Marque Sping Break 2011.  The area was very gloomy, secluded and scarry for my kids.  It looked dirty just by looking at the outside of the Hotel.  The air condition would not cool so we were very uncomfortable during the night.  The front desk staff was speaking a different language while we were checking in and looking at us like we were bothering them when we would ask a question.  The price was good but I would have definitely paid a little more if I would of know of the service and stay we would spend.  The toilet was not functioning we had to fix the little latch and there was no iron we had to ask the front desk and they asked to immediately return it.  Sorry I would not recommend this hotel to anyone.  Unfortunately we had a non refundable stay so we had no choice other that to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>We booked this hotel online and did not think of reading the reviews.  We stayed at Super 8 Hotel in Canton, Texas and everything was great back Feb 2011.  Sadly we did not read the reviews before booking at Super 8 Hotel La Marque Sping Break 2011.  The area was very gloomy, secluded and scarry for my kids.  It looked dirty just by looking at the outside of the Hotel.  The air condition would not cool so we were very uncomfortable during the night.  The front desk staff was speaking a different language while we were checking in and looking at us like we were bothering them when we would ask a question.  The price was good but I would have definitely paid a little more if I would of know of the service and stay we would spend.  The toilet was not functioning we had to fix the little latch and there was no iron we had to ask the front desk and they asked to immediately return it.  Sorry I would not recommend this hotel to anyone.  Unfortunately we had a non refundable stay so we had no choice other that to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r58925682-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>58925682</t>
+  </si>
+  <si>
+    <t>03/18/2010</t>
+  </si>
+  <si>
+    <t>Very comfortable hotel</t>
+  </si>
+  <si>
+    <t>All hotels were booked in Galveston so my fiance &amp; I rode around for about 20 mins on the outskirts of the island when we lucked up on a vacant room at Super 8. The staff was extremely friendly!! The The outside of the building is decieving, however the inside of the rooms are VERY VERY CLEAN... &amp; YES EVEN THE RESTROOMS. Although they could attempt using fabric softner on their bed sheets.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r28950630-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>28950630</t>
+  </si>
+  <si>
+    <t>04/28/2009</t>
+  </si>
+  <si>
+    <t>It was the only place with vacany when we were looking</t>
+  </si>
+  <si>
+    <t>We went to Galveston one weekend and stupidly didn't book a hotel before we arrived (we only live 2 1/2 hours away). Turns out that every room on the island was completely booked up. Drove around for several hours until we found Super 8 in La Marque. It was fine because we were tired. It was just kind of run down, and the lobby smelled of urine. We were grateful to find a place to sleep, but probably won't stay there again.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56109-d239992-r8356707-Super_8_by_Wyndham_la_Marque_TX_Texas_City_Area-La_Marque_Texas.html</t>
+  </si>
+  <si>
+    <t>8356707</t>
+  </si>
+  <si>
+    <t>08/04/2007</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>First problem, I could not understand the clerk.  Second,  I booked my trip online and I did not think I needed to see a full description so I never clicked on that link. That turned out to be the only spot where the check in time was listed.  I showed up 30 minutes early.  The room I was given was not ready.  When I went back to the desk all I expected was a different room.  The clerk was not kind and made me feel very bad for not knowing the check in time and showing up early.  It wasn't a case of the cleaning crew being the next room over, there was no cleaning crew in sight along the entire side of the hotel.  Third problem, the bed was beyond hard. The pillows were only slightly less firm.  Fourth problem, the Jurassic air conditioning unit was about as quiet as a herd of stampeding triceratops.  When another unit next door would kick in it not only increased the noise level, it made our unit start laboring and get even louder.  Fifth problem, not enough outlets.  There were 8 outlets in the entire room and the only one not being used was inaccessible without moving furniture.  There were also nine items with plugs.  I unplugged the hair dryer in order to use the microwave and unplugged one lamp to use the coffee maker. Sixth problem, the shower had an unstoppable...First problem, I could not understand the clerk.  Second,  I booked my trip online and I did not think I needed to see a full description so I never clicked on that link. That turned out to be the only spot where the check in time was listed.  I showed up 30 minutes early.  The room I was given was not ready.  When I went back to the desk all I expected was a different room.  The clerk was not kind and made me feel very bad for not knowing the check in time and showing up early.  It wasn't a case of the cleaning crew being the next room over, there was no cleaning crew in sight along the entire side of the hotel.  Third problem, the bed was beyond hard. The pillows were only slightly less firm.  Fourth problem, the Jurassic air conditioning unit was about as quiet as a herd of stampeding triceratops.  When another unit next door would kick in it not only increased the noise level, it made our unit start laboring and get even louder.  Fifth problem, not enough outlets.  There were 8 outlets in the entire room and the only one not being used was inaccessible without moving furniture.  There were also nine items with plugs.  I unplugged the hair dryer in order to use the microwave and unplugged one lamp to use the coffee maker. Sixth problem, the shower had an unstoppable drip.  I had to place a wash rag over the faucet to break the fall and quiet the leak.  Overall it turned out to be a place to store our clothes and toiletries while out doing the vacation thing.  You could get off your feet by laying on the bed but unless you can sleep through earthquakes or hurricanes you won't be getting much rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>First problem, I could not understand the clerk.  Second,  I booked my trip online and I did not think I needed to see a full description so I never clicked on that link. That turned out to be the only spot where the check in time was listed.  I showed up 30 minutes early.  The room I was given was not ready.  When I went back to the desk all I expected was a different room.  The clerk was not kind and made me feel very bad for not knowing the check in time and showing up early.  It wasn't a case of the cleaning crew being the next room over, there was no cleaning crew in sight along the entire side of the hotel.  Third problem, the bed was beyond hard. The pillows were only slightly less firm.  Fourth problem, the Jurassic air conditioning unit was about as quiet as a herd of stampeding triceratops.  When another unit next door would kick in it not only increased the noise level, it made our unit start laboring and get even louder.  Fifth problem, not enough outlets.  There were 8 outlets in the entire room and the only one not being used was inaccessible without moving furniture.  There were also nine items with plugs.  I unplugged the hair dryer in order to use the microwave and unplugged one lamp to use the coffee maker. Sixth problem, the shower had an unstoppable...First problem, I could not understand the clerk.  Second,  I booked my trip online and I did not think I needed to see a full description so I never clicked on that link. That turned out to be the only spot where the check in time was listed.  I showed up 30 minutes early.  The room I was given was not ready.  When I went back to the desk all I expected was a different room.  The clerk was not kind and made me feel very bad for not knowing the check in time and showing up early.  It wasn't a case of the cleaning crew being the next room over, there was no cleaning crew in sight along the entire side of the hotel.  Third problem, the bed was beyond hard. The pillows were only slightly less firm.  Fourth problem, the Jurassic air conditioning unit was about as quiet as a herd of stampeding triceratops.  When another unit next door would kick in it not only increased the noise level, it made our unit start laboring and get even louder.  Fifth problem, not enough outlets.  There were 8 outlets in the entire room and the only one not being used was inaccessible without moving furniture.  There were also nine items with plugs.  I unplugged the hair dryer in order to use the microwave and unplugged one lamp to use the coffee maker. Sixth problem, the shower had an unstoppable drip.  I had to place a wash rag over the faucet to break the fall and quiet the leak.  Overall it turned out to be a place to store our clothes and toiletries while out doing the vacation thing.  You could get off your feet by laying on the bed but unless you can sleep through earthquakes or hurricanes you won't be getting much rest.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1915,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1947,6095 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" t="s">
+        <v>143</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" t="s">
+        <v>150</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>144</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>157</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" t="s">
+        <v>169</v>
+      </c>
+      <c r="L27" t="s">
+        <v>170</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" t="s">
+        <v>175</v>
+      </c>
+      <c r="L28" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>177</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" t="s">
+        <v>183</v>
+      </c>
+      <c r="K30" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" t="s">
+        <v>185</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>177</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L31" t="s">
+        <v>190</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>191</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" t="s">
+        <v>197</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>191</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>199</v>
+      </c>
+      <c r="J34" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>191</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>204</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" t="s">
+        <v>207</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>208</v>
+      </c>
+      <c r="O36" t="s">
+        <v>86</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>208</v>
+      </c>
+      <c r="O37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J38" t="s">
+        <v>213</v>
+      </c>
+      <c r="K38" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" t="s">
+        <v>215</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>204</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>217</v>
+      </c>
+      <c r="J39" t="s">
+        <v>218</v>
+      </c>
+      <c r="K39" t="s">
+        <v>219</v>
+      </c>
+      <c r="L39" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>221</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>223</v>
+      </c>
+      <c r="J40" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" t="s">
+        <v>225</v>
+      </c>
+      <c r="L40" t="s">
+        <v>226</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>221</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>229</v>
+      </c>
+      <c r="J41" t="s">
+        <v>230</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>231</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>233</v>
+      </c>
+      <c r="J42" t="s">
+        <v>234</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>231</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>236</v>
+      </c>
+      <c r="J43" t="s">
+        <v>237</v>
+      </c>
+      <c r="K43" t="s">
+        <v>238</v>
+      </c>
+      <c r="L43" t="s">
+        <v>239</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>240</v>
+      </c>
+      <c r="O43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>242</v>
+      </c>
+      <c r="J44" t="s">
+        <v>243</v>
+      </c>
+      <c r="K44" t="s">
+        <v>244</v>
+      </c>
+      <c r="L44" t="s">
+        <v>245</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>240</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>247</v>
+      </c>
+      <c r="J45" t="s">
+        <v>248</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>240</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>250</v>
+      </c>
+      <c r="J46" t="s">
+        <v>251</v>
+      </c>
+      <c r="K46" t="s">
+        <v>252</v>
+      </c>
+      <c r="L46" t="s">
+        <v>253</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>240</v>
+      </c>
+      <c r="O46" t="s">
+        <v>86</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>254</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>255</v>
+      </c>
+      <c r="J47" t="s">
+        <v>256</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>257</v>
+      </c>
+      <c r="O47" t="s">
+        <v>92</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>259</v>
+      </c>
+      <c r="J48" t="s">
+        <v>260</v>
+      </c>
+      <c r="K48" t="s">
+        <v>261</v>
+      </c>
+      <c r="L48" t="s">
+        <v>262</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>263</v>
+      </c>
+      <c r="O48" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" t="s">
+        <v>266</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>257</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>268</v>
+      </c>
+      <c r="J50" t="s">
+        <v>269</v>
+      </c>
+      <c r="K50" t="s">
+        <v>270</v>
+      </c>
+      <c r="L50" t="s">
+        <v>271</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>257</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>273</v>
+      </c>
+      <c r="J51" t="s">
+        <v>274</v>
+      </c>
+      <c r="K51" t="s">
+        <v>275</v>
+      </c>
+      <c r="L51" t="s">
+        <v>276</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>277</v>
+      </c>
+      <c r="O51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>280</v>
+      </c>
+      <c r="J52" t="s">
+        <v>281</v>
+      </c>
+      <c r="K52" t="s">
+        <v>282</v>
+      </c>
+      <c r="L52" t="s">
+        <v>283</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>277</v>
+      </c>
+      <c r="O52" t="s">
+        <v>86</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>284</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>285</v>
+      </c>
+      <c r="J53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K53" t="s">
+        <v>287</v>
+      </c>
+      <c r="L53" t="s">
+        <v>288</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>289</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>290</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>291</v>
+      </c>
+      <c r="J54" t="s">
+        <v>292</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>289</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>293</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>294</v>
+      </c>
+      <c r="J55" t="s">
+        <v>295</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>289</v>
+      </c>
+      <c r="O55" t="s">
+        <v>92</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>296</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>297</v>
+      </c>
+      <c r="J56" t="s">
+        <v>298</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>299</v>
+      </c>
+      <c r="O56" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>300</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>301</v>
+      </c>
+      <c r="J57" t="s">
+        <v>302</v>
+      </c>
+      <c r="K57" t="s">
+        <v>303</v>
+      </c>
+      <c r="L57" t="s">
+        <v>304</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>305</v>
+      </c>
+      <c r="O57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>307</v>
+      </c>
+      <c r="J58" t="s">
+        <v>308</v>
+      </c>
+      <c r="K58" t="s">
+        <v>309</v>
+      </c>
+      <c r="L58" t="s">
+        <v>310</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>311</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>312</v>
+      </c>
+      <c r="J59" t="s">
+        <v>313</v>
+      </c>
+      <c r="K59" t="s">
+        <v>314</v>
+      </c>
+      <c r="L59" t="s">
+        <v>315</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>316</v>
+      </c>
+      <c r="O59" t="s">
+        <v>92</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>317</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>318</v>
+      </c>
+      <c r="J60" t="s">
+        <v>319</v>
+      </c>
+      <c r="K60" t="s">
+        <v>320</v>
+      </c>
+      <c r="L60" t="s">
+        <v>321</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>322</v>
+      </c>
+      <c r="O60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>324</v>
+      </c>
+      <c r="J61" t="s">
+        <v>325</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>322</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>327</v>
+      </c>
+      <c r="J62" t="s">
+        <v>328</v>
+      </c>
+      <c r="K62" t="s">
+        <v>329</v>
+      </c>
+      <c r="L62" t="s">
+        <v>330</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>331</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>333</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>334</v>
+      </c>
+      <c r="J63" t="s">
+        <v>335</v>
+      </c>
+      <c r="K63" t="s">
+        <v>336</v>
+      </c>
+      <c r="L63" t="s">
+        <v>337</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>331</v>
+      </c>
+      <c r="O63" t="s">
+        <v>86</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>338</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>339</v>
+      </c>
+      <c r="J64" t="s">
+        <v>340</v>
+      </c>
+      <c r="K64" t="s">
+        <v>341</v>
+      </c>
+      <c r="L64" t="s">
+        <v>342</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>343</v>
+      </c>
+      <c r="O64" t="s">
+        <v>86</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>345</v>
+      </c>
+      <c r="J65" t="s">
+        <v>346</v>
+      </c>
+      <c r="K65" t="s">
+        <v>347</v>
+      </c>
+      <c r="L65" t="s">
+        <v>348</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>349</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>350</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>351</v>
+      </c>
+      <c r="J66" t="s">
+        <v>352</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>349</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>353</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>354</v>
+      </c>
+      <c r="J67" t="s">
+        <v>355</v>
+      </c>
+      <c r="K67" t="s">
+        <v>356</v>
+      </c>
+      <c r="L67" t="s">
+        <v>357</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>358</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>359</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>360</v>
+      </c>
+      <c r="J68" t="s">
+        <v>361</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>362</v>
+      </c>
+      <c r="O68" t="s">
+        <v>86</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>363</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>364</v>
+      </c>
+      <c r="J69" t="s">
+        <v>365</v>
+      </c>
+      <c r="K69" t="s">
+        <v>366</v>
+      </c>
+      <c r="L69" t="s">
+        <v>367</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>368</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>369</v>
+      </c>
+      <c r="J70" t="s">
+        <v>370</v>
+      </c>
+      <c r="K70" t="s">
+        <v>371</v>
+      </c>
+      <c r="L70" t="s">
+        <v>372</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>373</v>
+      </c>
+      <c r="O70" t="s">
+        <v>92</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>374</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>375</v>
+      </c>
+      <c r="J71" t="s">
+        <v>376</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>373</v>
+      </c>
+      <c r="O71" t="s">
+        <v>92</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>377</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>378</v>
+      </c>
+      <c r="J72" t="s">
+        <v>379</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>380</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>381</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>382</v>
+      </c>
+      <c r="J73" t="s">
+        <v>383</v>
+      </c>
+      <c r="K73" t="s">
+        <v>384</v>
+      </c>
+      <c r="L73" t="s">
+        <v>385</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>380</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>386</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>387</v>
+      </c>
+      <c r="J74" t="s">
+        <v>388</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>389</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>390</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>391</v>
+      </c>
+      <c r="J75" t="s">
+        <v>392</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>389</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>393</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>394</v>
+      </c>
+      <c r="J76" t="s">
+        <v>395</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>389</v>
+      </c>
+      <c r="O76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>396</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>397</v>
+      </c>
+      <c r="J77" t="s">
+        <v>398</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>399</v>
+      </c>
+      <c r="O77" t="s">
+        <v>92</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>400</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>401</v>
+      </c>
+      <c r="J78" t="s">
+        <v>402</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>403</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>404</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>405</v>
+      </c>
+      <c r="J79" t="s">
+        <v>406</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>407</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>408</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>409</v>
+      </c>
+      <c r="J80" t="s">
+        <v>410</v>
+      </c>
+      <c r="K80" t="s">
+        <v>411</v>
+      </c>
+      <c r="L80" t="s">
+        <v>412</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>413</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>414</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>415</v>
+      </c>
+      <c r="J81" t="s">
+        <v>416</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>413</v>
+      </c>
+      <c r="O81" t="s">
+        <v>92</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>417</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>418</v>
+      </c>
+      <c r="J82" t="s">
+        <v>419</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>420</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>421</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>422</v>
+      </c>
+      <c r="J83" t="s">
+        <v>423</v>
+      </c>
+      <c r="K83" t="s">
+        <v>424</v>
+      </c>
+      <c r="L83" t="s">
+        <v>425</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>426</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>427</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>428</v>
+      </c>
+      <c r="J84" t="s">
+        <v>429</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>426</v>
+      </c>
+      <c r="O84" t="s">
+        <v>62</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>430</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>431</v>
+      </c>
+      <c r="J85" t="s">
+        <v>432</v>
+      </c>
+      <c r="K85" t="s">
+        <v>433</v>
+      </c>
+      <c r="L85" t="s">
+        <v>434</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>426</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>436</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>437</v>
+      </c>
+      <c r="J86" t="s">
+        <v>438</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s">
+        <v>439</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>440</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>442</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>443</v>
+      </c>
+      <c r="J87" t="s">
+        <v>444</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s">
+        <v>439</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>445</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>446</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>447</v>
+      </c>
+      <c r="J88" t="s">
+        <v>448</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>440</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>449</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>450</v>
+      </c>
+      <c r="J89" t="s">
+        <v>451</v>
+      </c>
+      <c r="K89" t="s">
+        <v>452</v>
+      </c>
+      <c r="L89" t="s">
+        <v>453</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>455</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>456</v>
+      </c>
+      <c r="J90" t="s">
+        <v>457</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>458</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>459</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>460</v>
+      </c>
+      <c r="J91" t="s">
+        <v>461</v>
+      </c>
+      <c r="K91" t="s">
+        <v>462</v>
+      </c>
+      <c r="L91" t="s">
+        <v>463</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>464</v>
+      </c>
+      <c r="O91" t="s">
+        <v>92</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>465</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>466</v>
+      </c>
+      <c r="J92" t="s">
+        <v>467</v>
+      </c>
+      <c r="K92" t="s">
+        <v>468</v>
+      </c>
+      <c r="L92" t="s">
+        <v>469</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>470</v>
+      </c>
+      <c r="O92" t="s">
+        <v>62</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>471</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>472</v>
+      </c>
+      <c r="J93" t="s">
+        <v>473</v>
+      </c>
+      <c r="K93" t="s">
+        <v>474</v>
+      </c>
+      <c r="L93" t="s">
+        <v>475</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>470</v>
+      </c>
+      <c r="O93" t="s">
+        <v>92</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>476</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>477</v>
+      </c>
+      <c r="J94" t="s">
+        <v>478</v>
+      </c>
+      <c r="K94" t="s">
+        <v>479</v>
+      </c>
+      <c r="L94" t="s">
+        <v>480</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>481</v>
+      </c>
+      <c r="O94" t="s">
+        <v>62</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>483</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>484</v>
+      </c>
+      <c r="J95" t="s">
+        <v>485</v>
+      </c>
+      <c r="K95" t="s">
+        <v>486</v>
+      </c>
+      <c r="L95" t="s">
+        <v>487</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>488</v>
+      </c>
+      <c r="O95" t="s">
+        <v>92</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>489</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>490</v>
+      </c>
+      <c r="J96" t="s">
+        <v>491</v>
+      </c>
+      <c r="K96" t="s">
+        <v>492</v>
+      </c>
+      <c r="L96" t="s">
+        <v>493</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>494</v>
+      </c>
+      <c r="O96" t="s">
+        <v>92</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>23538</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>495</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>496</v>
+      </c>
+      <c r="J97" t="s">
+        <v>497</v>
+      </c>
+      <c r="K97" t="s">
+        <v>498</v>
+      </c>
+      <c r="L97" t="s">
+        <v>499</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>500</v>
+      </c>
+      <c r="O97" t="s">
+        <v>62</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
